--- a/docs/ServiceAssessmentQuestionnair.xlsx
+++ b/docs/ServiceAssessmentQuestionnair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkata.Satya\Desktop\BJSS Backup\Backup\BJSS\NHS Identity\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkata.Satya\nhsidentity\national-authentication\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74498E09-DF4F-4D5B-B144-97F4B8154A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A1B74-AF01-4122-ACB5-558C3D32D9A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -36,27 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="207">
-  <si>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="209">
   <si>
     <t>REF</t>
   </si>
@@ -298,9 +278,6 @@
     <t>Y30-12 Y20-15</t>
   </si>
   <si>
-    <t>Health and social care benefits</t>
-  </si>
-  <si>
     <t>Y35-6</t>
   </si>
   <si>
@@ -343,12 +320,6 @@
     <t>Objective</t>
   </si>
   <si>
-    <t>Your Service - User &amp; Access Managemernt</t>
-  </si>
-  <si>
-    <t>What is the offboarding procedure for a User?</t>
-  </si>
-  <si>
     <t>Are there any existing Multi factor Authentication capabilities?</t>
   </si>
   <si>
@@ -391,9 +362,6 @@
     <t>Manual List or XLS</t>
   </si>
   <si>
-    <t>What is the max number of concurrent users accessing/ logging into your application each day?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using RBAC </t>
   </si>
   <si>
@@ -439,9 +407,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>F2f with a Local RA Manager</t>
-  </si>
-  <si>
     <t>None - anyone can register</t>
   </si>
   <si>
@@ -508,39 +473,15 @@
     <t>Open access to all</t>
   </si>
   <si>
-    <t>Mix of general &amp; clinicians</t>
-  </si>
-  <si>
     <t>Clinicians only</t>
   </si>
   <si>
-    <t>How is a new user onboarded onto your service?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the Identity proofing/ verification methods used while onboarding a new user? </t>
-  </si>
-  <si>
-    <t>How are the Users currently Authenticated/ logged into your service?</t>
-  </si>
-  <si>
-    <t>How are the Users currently Authorized?</t>
-  </si>
-  <si>
     <t>How many Users use your application?</t>
   </si>
   <si>
-    <t>What are the various Roles assigned to the users?</t>
-  </si>
-  <si>
-    <t>What is the sensitivity (classification) of the data accessed by your users?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Who will have access to the data and your applications? </t>
   </si>
   <si>
-    <t xml:space="preserve">How is the access controlled and managed for external users? </t>
-  </si>
-  <si>
     <t>RA/ Admin assured onboarding process</t>
   </si>
   <si>
@@ -565,9 +506,6 @@
     <t>Why NHS Identity?</t>
   </si>
   <si>
-    <t>Why does your service require the NHS Identity? / How are you solving the problem of Assuring and Authenticating your users today?</t>
-  </si>
-  <si>
     <t>Which (if any) existing NHS digital API's have your users been assured to use?</t>
   </si>
   <si>
@@ -577,33 +515,9 @@
     <t>User is allowed access to this one application only</t>
   </si>
   <si>
-    <t>Based on specific attributes of users</t>
-  </si>
-  <si>
-    <t>There are no restrictions for autherization</t>
-  </si>
-  <si>
-    <t>What are the various Authentication Levels assigned to your users?</t>
-  </si>
-  <si>
-    <t>What are the various Identity assurance Levels assigned to your users?</t>
-  </si>
-  <si>
-    <t>IAL1-Need not link the applicant to a real-life identity.</t>
-  </si>
-  <si>
-    <t>IAL2-Need remote or physically present identity proofing.</t>
-  </si>
-  <si>
     <t>IAL3-Physical presence is required for identity proofing</t>
   </si>
   <si>
-    <t>Are multiple roles and access privileges assigned to any users? If so please describe the relationship between their org, role and access.</t>
-  </si>
-  <si>
-    <t>What is the network on which your system and applications allowed to be accessed?</t>
-  </si>
-  <si>
     <t>Laptops/ Desktops on Win 10/above</t>
   </si>
   <si>
@@ -616,9 +530,6 @@
     <t>Is there any need for audit and reporting</t>
   </si>
   <si>
-    <t>Social care workers only</t>
-  </si>
-  <si>
     <t>Corporate Network on N3</t>
   </si>
   <si>
@@ -646,41 +557,119 @@
     <t>A mix of both</t>
   </si>
   <si>
-    <t>None-User brings his own device</t>
-  </si>
-  <si>
     <t>Corporate device onboarded using MDM</t>
   </si>
   <si>
-    <t>None-User manages his own device</t>
-  </si>
-  <si>
     <t>Corporate device offboarded using MDM</t>
   </si>
   <si>
-    <t>Is there a mandatory requirement that users should be able to share their devices?</t>
-  </si>
-  <si>
     <t>Kerberos</t>
   </si>
   <si>
     <t>Windows integrated</t>
   </si>
   <si>
-    <t>Are the user's roles and access allocated per organisation?</t>
-  </si>
-  <si>
     <t>Choose your Answer</t>
   </si>
   <si>
     <t>Give further Information</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Select from the Drop down</t>
+  </si>
+  <si>
+    <t>Face to Face with a Local RA Manager</t>
+  </si>
+  <si>
+    <t>IAL1-Need not link the applicant to a real-life identity</t>
+  </si>
+  <si>
+    <t>IAL2-Need remote or physically present identity proofing</t>
+  </si>
+  <si>
+    <t>How are the Users currently Authenticated/logged into your service?</t>
+  </si>
+  <si>
+    <t>How is a new User currently onboarded onto your service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the Identity proofing/verification methods used while onboarding a new User? </t>
+  </si>
+  <si>
+    <t>What are the various Identity Assurance Levels assigned to your Users?</t>
+  </si>
+  <si>
+    <t>Based on specific attributes of Users</t>
+  </si>
+  <si>
+    <t>What are the various Roles assigned to the Users?</t>
+  </si>
+  <si>
+    <t>Are the User's roles and access allocated per organisation?</t>
+  </si>
+  <si>
+    <t>Are multiple roles and access privileges assigned to any Users? If so please describe the relationship between their org, role and access.</t>
+  </si>
+  <si>
+    <t>Is there a mandatory requirement that Users should be able to share their devices?</t>
+  </si>
+  <si>
+    <t>What is the sensitivity (classification) of the data accessed by your Users?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is the access controlled and managed for external Users? </t>
+  </si>
+  <si>
+    <t>There are no restrictions for authorisation</t>
+  </si>
+  <si>
+    <t>How are the Users currently Authorised?</t>
+  </si>
+  <si>
+    <t>What is the max number of concurrent Users accessing/logging into your application each day?</t>
+  </si>
+  <si>
+    <t>What is the current offboarding procedure for a User?</t>
+  </si>
+  <si>
+    <t>RA/ Admin assured offboarding process</t>
+  </si>
+  <si>
+    <t>What are the various Authentication Levels required by your Users?</t>
+  </si>
+  <si>
+    <t>What is the network on which your system and applications are allowed to be accessed?</t>
+  </si>
+  <si>
+    <t>None-User brings their own device</t>
+  </si>
+  <si>
+    <t>None-User manages their own device</t>
+  </si>
+  <si>
+    <t>Social Care workers only</t>
+  </si>
+  <si>
+    <t>Mix of general &amp; Clinicians</t>
+  </si>
+  <si>
+    <t>Your Service - User &amp; Access Management</t>
+  </si>
+  <si>
+    <t>Why does your service require NHS Identity? / How are you solving the problem of Assuring and Authenticating your users today?</t>
+  </si>
+  <si>
+    <t>Health and Social Care Benefits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -705,12 +694,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -786,7 +769,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,12 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -815,12 +792,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF8EAADB"/>
       </patternFill>
     </fill>
     <fill>
@@ -845,6 +816,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005EB8"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1089,37 +1066,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,32 +1106,32 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,54 +1145,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1224,18 +1244,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,10 +1264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,63 +1276,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1322,6 +1287,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF005EB8"/>
+      <color rgb="FF0072CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1393,22 +1364,88 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73603</xdr:colOff>
+      <xdr:colOff>86590</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64944</xdr:rowOff>
+      <xdr:rowOff>115453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>865909</xdr:colOff>
+      <xdr:colOff>842818</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>645880</xdr:rowOff>
+      <xdr:rowOff>641348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B7D3B0-A806-4B3D-A27F-74F57AAB79BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DB2142-0DF5-45E8-8120-EF40D900C07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="86590" y="115453"/>
+          <a:ext cx="756228" cy="525895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>941985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>644436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A726F2-67A5-460D-8132-CAC153DA355A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,62 +1467,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1430194" y="64944"/>
+          <a:off x="149679" y="63500"/>
           <a:ext cx="792306" cy="580936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED93115-40C8-47BD-887E-48561949E07A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="142875"/>
-          <a:ext cx="1162050" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1758,7 +1745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120FD54-FA19-44BA-8CBE-332367F8EDE6}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1786,10 +1775,10 @@
     </row>
     <row r="2" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="42"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -1837,13 +1826,13 @@
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
-      <c r="B5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="B5" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -1873,15 +1862,15 @@
     </row>
     <row r="7" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
-      <c r="B7" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -1894,15 +1883,15 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
-      <c r="B8" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="B8" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82">
         <v>43567</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -1915,15 +1904,15 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
-      <c r="B9" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="62">
+      <c r="B9" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
@@ -1936,15 +1925,15 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
@@ -2008,15 +1997,15 @@
     </row>
     <row r="14" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
-      <c r="B14" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="B14" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -2063,15 +2052,15 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="41"/>
-      <c r="B17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
@@ -2417,63 +2406,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB975"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.25" style="96" customWidth="1"/>
-    <col min="2" max="2" width="34.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40" style="9" customWidth="1"/>
+    <col min="1" max="1" width="69.25" style="69" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.08203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="30" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="30.4140625" style="40" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.58203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.9140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.58203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.4140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.58203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="18.75" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="26.5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="20.83203125" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="10.5" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="14.08203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="13.58203125" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.9140625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="14.58203125" customWidth="1"/>
+    <col min="18" max="18" width="30.4140625" customWidth="1"/>
+    <col min="19" max="19" width="19.58203125" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="18.75" customWidth="1"/>
+    <col min="22" max="22" width="26.5" customWidth="1"/>
+    <col min="23" max="23" width="20.83203125" customWidth="1"/>
+    <col min="24" max="25" width="10.5" customWidth="1"/>
+    <col min="26" max="26" width="14.08203125" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="28" max="30" width="11.08203125" customWidth="1"/>
     <col min="31" max="105" width="11.08203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>206</v>
+      <c r="A1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>178</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:106" s="24" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="75"/>
+      <c r="A2" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="49"/>
       <c r="D2" s="13"/>
       <c r="E2" s="23"/>
       <c r="H2" s="24">
@@ -2539,7 +2532,7 @@
       <c r="AC2" s="24">
         <v>27</v>
       </c>
-      <c r="AD2" s="88">
+      <c r="AD2" s="62">
         <v>28</v>
       </c>
       <c r="AE2" s="5"/>
@@ -2617,14 +2610,14 @@
       <c r="CY2" s="5"/>
       <c r="CZ2" s="5"/>
       <c r="DA2" s="5"/>
-      <c r="DB2" s="91"/>
+      <c r="DB2" s="65"/>
     </row>
     <row r="3" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="5"/>
       <c r="E3" s="16"/>
       <c r="H3" s="47"/>
@@ -2649,7 +2642,7 @@
       <c r="AA3" s="47"/>
       <c r="AB3" s="47"/>
       <c r="AC3" s="47"/>
-      <c r="AD3" s="89"/>
+      <c r="AD3" s="63"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
@@ -2725,14 +2718,14 @@
       <c r="CY3" s="5"/>
       <c r="CZ3" s="5"/>
       <c r="DA3" s="5"/>
-      <c r="DB3" s="92"/>
+      <c r="DB3" s="66"/>
     </row>
     <row r="4" spans="1:106" s="14" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="5"/>
       <c r="E4" s="16"/>
       <c r="I4" s="47"/>
@@ -2744,7 +2737,7 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="AD4" s="90"/>
+      <c r="AD4" s="64"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -2820,14 +2813,14 @@
       <c r="CY4" s="5"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
-      <c r="DB4" s="92"/>
+      <c r="DB4" s="66"/>
     </row>
     <row r="5" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="5"/>
       <c r="E5" s="16"/>
       <c r="I5" s="47"/>
@@ -2839,10 +2832,10 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
       <c r="Q5" s="47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="T5" s="47"/>
-      <c r="AD5" s="90"/>
+      <c r="AD5" s="64"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -2918,81 +2911,81 @@
       <c r="CY5" s="5"/>
       <c r="CZ5" s="5"/>
       <c r="DA5" s="5"/>
-      <c r="DB5" s="92"/>
+      <c r="DB5" s="66"/>
     </row>
     <row r="6" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="5"/>
       <c r="E6" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R6" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="S6" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="S6" s="47" t="s">
-        <v>188</v>
-      </c>
       <c r="T6" s="47" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="V6" s="47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="W6" s="47" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Y6" s="47" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Z6" s="47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AA6" s="47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47"/>
-      <c r="AD6" s="89"/>
+      <c r="AD6" s="63"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
@@ -3068,81 +3061,81 @@
       <c r="CY6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DB6" s="92"/>
+      <c r="DB6" s="66"/>
     </row>
     <row r="7" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
+      <c r="A7" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="5"/>
       <c r="E7" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J7" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="V7" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="V7" s="47" t="s">
-        <v>200</v>
-      </c>
       <c r="W7" s="47" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="X7" s="47" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="47" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Z7" s="47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AA7" s="47" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AB7" s="47"/>
       <c r="AC7" s="47"/>
-      <c r="AD7" s="89"/>
+      <c r="AD7" s="63"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
@@ -3218,73 +3211,73 @@
       <c r="CY7" s="5"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DB7" s="92"/>
+      <c r="DB7" s="66"/>
     </row>
     <row r="8" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="5"/>
       <c r="E8" s="16"/>
       <c r="H8" s="47" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K8" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="47" t="s">
-        <v>116</v>
-      </c>
       <c r="M8" s="47" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P8" s="47"/>
       <c r="Q8" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>130</v>
-      </c>
       <c r="T8" s="47" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
       <c r="X8" s="47" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Y8" s="47" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Z8" s="47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AA8" s="47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AB8" s="47"/>
       <c r="AC8" s="47"/>
-      <c r="AD8" s="89"/>
+      <c r="AD8" s="63"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -3360,63 +3353,63 @@
       <c r="CY8" s="5"/>
       <c r="CZ8" s="5"/>
       <c r="DA8" s="5"/>
-      <c r="DB8" s="92"/>
+      <c r="DB8" s="66"/>
     </row>
     <row r="9" spans="1:106" s="14" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="5"/>
       <c r="E9" s="16"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>109</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="P9" s="47"/>
       <c r="Q9" s="47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R9" s="47" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="U9" s="47"/>
       <c r="V9" s="47"/>
       <c r="W9" s="47"/>
       <c r="X9" s="47" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="Y9" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AA9" s="47" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47"/>
-      <c r="AD9" s="89"/>
+      <c r="AD9" s="63"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -3492,14 +3485,14 @@
       <c r="CY9" s="5"/>
       <c r="CZ9" s="5"/>
       <c r="DA9" s="5"/>
-      <c r="DB9" s="92"/>
+      <c r="DB9" s="66"/>
     </row>
     <row r="10" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="80"/>
+      <c r="A10" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="5"/>
       <c r="E10" s="16"/>
       <c r="H10" s="47"/>
@@ -3508,35 +3501,35 @@
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="N10" s="47" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="O10" s="47"/>
       <c r="P10" s="47"/>
       <c r="Q10" s="47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R10" s="47" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U10" s="47"/>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
       <c r="X10" s="47" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
       <c r="AA10" s="47"/>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47"/>
-      <c r="AD10" s="89"/>
+      <c r="AD10" s="63"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
@@ -3612,14 +3605,14 @@
       <c r="CY10" s="5"/>
       <c r="CZ10" s="5"/>
       <c r="DA10" s="5"/>
-      <c r="DB10" s="92"/>
+      <c r="DB10" s="66"/>
     </row>
     <row r="11" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="80"/>
+      <c r="A11" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5"/>
       <c r="E11" s="16"/>
       <c r="I11" s="47"/>
@@ -3627,32 +3620,32 @@
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
       <c r="M11" s="47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N11" s="47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O11" s="47"/>
       <c r="P11" s="47"/>
       <c r="Q11" s="47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="47" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="U11" s="47"/>
       <c r="V11" s="47"/>
       <c r="W11" s="47"/>
       <c r="X11" s="47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
       <c r="AA11" s="47"/>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47"/>
-      <c r="AD11" s="89"/>
+      <c r="AD11" s="63"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -3728,14 +3721,14 @@
       <c r="CY11" s="5"/>
       <c r="CZ11" s="5"/>
       <c r="DA11" s="5"/>
-      <c r="DB11" s="92"/>
+      <c r="DB11" s="66"/>
     </row>
     <row r="12" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="5"/>
       <c r="E12" s="16"/>
       <c r="H12" s="47"/>
@@ -3751,7 +3744,7 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
       <c r="T12" s="47" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="U12" s="47"/>
       <c r="V12" s="47"/>
@@ -3762,7 +3755,7 @@
       <c r="AA12" s="47"/>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47"/>
-      <c r="AD12" s="89"/>
+      <c r="AD12" s="63"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -3838,14 +3831,14 @@
       <c r="CY12" s="5"/>
       <c r="CZ12" s="5"/>
       <c r="DA12" s="5"/>
-      <c r="DB12" s="92"/>
+      <c r="DB12" s="66"/>
     </row>
     <row r="13" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="5"/>
       <c r="E13" s="16"/>
       <c r="H13" s="47"/>
@@ -3870,7 +3863,7 @@
       <c r="AA13" s="47"/>
       <c r="AB13" s="47"/>
       <c r="AC13" s="47"/>
-      <c r="AD13" s="89"/>
+      <c r="AD13" s="63"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
@@ -3946,14 +3939,14 @@
       <c r="CY13" s="5"/>
       <c r="CZ13" s="5"/>
       <c r="DA13" s="5"/>
-      <c r="DB13" s="92"/>
+      <c r="DB13" s="66"/>
     </row>
     <row r="14" spans="1:106" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
       <c r="H14" s="47"/>
@@ -3978,7 +3971,7 @@
       <c r="AA14" s="47"/>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47"/>
-      <c r="AD14" s="89"/>
+      <c r="AD14" s="63"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
@@ -4054,14 +4047,14 @@
       <c r="CY14" s="5"/>
       <c r="CZ14" s="5"/>
       <c r="DA14" s="5"/>
-      <c r="DB14" s="92"/>
+      <c r="DB14" s="66"/>
     </row>
     <row r="15" spans="1:106" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="5"/>
       <c r="E15" s="16"/>
       <c r="H15" s="47"/>
@@ -4086,7 +4079,7 @@
       <c r="AA15" s="47"/>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47"/>
-      <c r="AD15" s="89"/>
+      <c r="AD15" s="63"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
@@ -4162,17 +4155,17 @@
       <c r="CY15" s="5"/>
       <c r="CZ15" s="5"/>
       <c r="DA15" s="5"/>
-      <c r="DB15" s="92"/>
+      <c r="DB15" s="66"/>
     </row>
     <row r="16" spans="1:106" s="24" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="5"/>
       <c r="E16" s="25"/>
-      <c r="AD16" s="88"/>
+      <c r="AD16" s="62"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
@@ -4248,19 +4241,19 @@
       <c r="CY16" s="5"/>
       <c r="CZ16" s="5"/>
       <c r="DA16" s="5"/>
-      <c r="DB16" s="91"/>
+      <c r="DB16" s="65"/>
     </row>
     <row r="17" spans="1:106" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
+      <c r="A17" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="5"/>
       <c r="E17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD17" s="90"/>
+        <v>3</v>
+      </c>
+      <c r="AD17" s="64"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -4336,19 +4329,19 @@
       <c r="CY17" s="5"/>
       <c r="CZ17" s="5"/>
       <c r="DA17" s="5"/>
-      <c r="DB17" s="92"/>
+      <c r="DB17" s="66"/>
     </row>
     <row r="18" spans="1:106" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="90"/>
+        <v>4</v>
+      </c>
+      <c r="AD18" s="64"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -4424,20 +4417,20 @@
       <c r="CY18" s="5"/>
       <c r="CZ18" s="5"/>
       <c r="DA18" s="5"/>
-      <c r="DB18" s="92"/>
+      <c r="DB18" s="66"/>
     </row>
     <row r="19" spans="1:106" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="AD19" s="90"/>
+      <c r="AD19" s="64"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
@@ -4513,18 +4506,18 @@
       <c r="CY19" s="5"/>
       <c r="CZ19" s="5"/>
       <c r="DA19" s="5"/>
-      <c r="DB19" s="92"/>
+      <c r="DB19" s="66"/>
     </row>
     <row r="20" spans="1:106" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="5"/>
       <c r="E20" s="16"/>
       <c r="G20" s="21"/>
-      <c r="AD20" s="90"/>
+      <c r="AD20" s="64"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
@@ -4600,18 +4593,18 @@
       <c r="CY20" s="5"/>
       <c r="CZ20" s="5"/>
       <c r="DA20" s="5"/>
-      <c r="DB20" s="92"/>
+      <c r="DB20" s="66"/>
     </row>
     <row r="21" spans="1:106" s="14" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="5"/>
       <c r="E21" s="16"/>
       <c r="G21" s="21"/>
-      <c r="AD21" s="90"/>
+      <c r="AD21" s="64"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
@@ -4687,17 +4680,17 @@
       <c r="CY21" s="5"/>
       <c r="CZ21" s="5"/>
       <c r="DA21" s="5"/>
-      <c r="DB21" s="92"/>
+      <c r="DB21" s="66"/>
     </row>
     <row r="22" spans="1:106" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="5"/>
       <c r="E22" s="25"/>
-      <c r="AD22" s="88"/>
+      <c r="AD22" s="62"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
@@ -4773,19 +4766,19 @@
       <c r="CY22" s="5"/>
       <c r="CZ22" s="5"/>
       <c r="DA22" s="5"/>
-      <c r="DB22" s="91"/>
+      <c r="DB22" s="65"/>
     </row>
     <row r="23" spans="1:106" s="14" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="5"/>
       <c r="E23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD23" s="90"/>
+        <v>6</v>
+      </c>
+      <c r="AD23" s="64"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
@@ -4861,19 +4854,19 @@
       <c r="CY23" s="5"/>
       <c r="CZ23" s="5"/>
       <c r="DA23" s="5"/>
-      <c r="DB23" s="92"/>
+      <c r="DB23" s="66"/>
     </row>
     <row r="24" spans="1:106" s="14" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="5"/>
       <c r="E24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD24" s="90"/>
+        <v>7</v>
+      </c>
+      <c r="AD24" s="64"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
@@ -4949,17 +4942,17 @@
       <c r="CY24" s="5"/>
       <c r="CZ24" s="5"/>
       <c r="DA24" s="5"/>
-      <c r="DB24" s="92"/>
+      <c r="DB24" s="66"/>
     </row>
     <row r="25" spans="1:106" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
+      <c r="A25" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="5"/>
       <c r="E25" s="25"/>
-      <c r="AD25" s="88"/>
+      <c r="AD25" s="62"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
@@ -5035,14 +5028,14 @@
       <c r="CY25" s="5"/>
       <c r="CZ25" s="5"/>
       <c r="DA25" s="5"/>
-      <c r="DB25" s="91"/>
+      <c r="DB25" s="65"/>
     </row>
     <row r="26" spans="1:106" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="87"/>
+      <c r="A26" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="5"/>
       <c r="E26" s="17"/>
       <c r="AD26" s="19"/>
@@ -5124,11 +5117,11 @@
       <c r="DB26" s="15"/>
     </row>
     <row r="27" spans="1:106" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="86"/>
+      <c r="A27" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="5"/>
       <c r="E27" s="18"/>
       <c r="AD27" s="19"/>
@@ -5210,11 +5203,11 @@
       <c r="DB27" s="15"/>
     </row>
     <row r="28" spans="1:106" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="5"/>
       <c r="E28" s="18"/>
       <c r="AD28" s="19"/>
@@ -5296,14 +5289,14 @@
       <c r="DB28" s="15"/>
     </row>
     <row r="29" spans="1:106" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
+      <c r="A29" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="5"/>
       <c r="E29" s="25"/>
-      <c r="AD29" s="88"/>
+      <c r="AD29" s="62"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
@@ -5379,14 +5372,14 @@
       <c r="CY29" s="5"/>
       <c r="CZ29" s="5"/>
       <c r="DA29" s="5"/>
-      <c r="DB29" s="91"/>
+      <c r="DB29" s="65"/>
     </row>
     <row r="30" spans="1:106" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
+      <c r="A30" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="5"/>
       <c r="E30" s="18"/>
       <c r="AD30" s="19"/>
@@ -5468,11 +5461,11 @@
       <c r="DB30" s="15"/>
     </row>
     <row r="31" spans="1:106" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="A31" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="5"/>
       <c r="E31" s="18"/>
       <c r="AD31" s="19"/>
@@ -6624,74 +6617,74 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="3"/>
@@ -6700,28 +6693,28 @@
       <c r="H5" s="40"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="40"/>
     </row>
@@ -6731,24 +6724,24 @@
       <c r="C7" s="1"/>
       <c r="D7" s="40"/>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="3"/>
@@ -6761,11 +6754,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -6778,15 +6771,15 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -6797,15 +6790,15 @@
     </row>
     <row r="11" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -6816,15 +6809,15 @@
     </row>
     <row r="12" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -6839,7 +6832,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="40"/>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -6850,11 +6843,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -6867,11 +6860,11 @@
     </row>
     <row r="15" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -6884,11 +6877,11 @@
     </row>
     <row r="16" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -6901,20 +6894,20 @@
     </row>
     <row r="17" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -6924,47 +6917,47 @@
     </row>
     <row r="20" spans="1:3" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -6974,47 +6967,47 @@
     </row>
     <row r="26" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -7024,32 +7017,32 @@
     </row>
     <row r="32" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2"/>
     </row>
@@ -7071,7 +7064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5219F1B-CA6D-4052-9F71-6478414ABB95}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7081,18 +7076,18 @@
     <col min="4" max="4" width="14.08203125" style="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="7"/>
       <c r="D1" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="67"/>
+      <c r="A2" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="88"/>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
     </row>
@@ -7103,11 +7098,11 @@
     </row>
     <row r="4" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="33"/>
       <c r="D4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7116,11 +7111,11 @@
     </row>
     <row r="6" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="35"/>
       <c r="D6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7129,11 +7124,11 @@
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="35"/>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7142,11 +7137,11 @@
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="37"/>
       <c r="D10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7155,11 +7150,11 @@
     </row>
     <row r="12" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="35"/>
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7173,10 +7168,10 @@
       <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="73"/>
+      <c r="A15" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="88"/>
     </row>
     <row r="16" spans="1:4" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40"/>
@@ -7184,34 +7179,34 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="69"/>
+      <c r="B18" s="90"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
-      <c r="B19" s="69"/>
+      <c r="B19" s="90"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
-      <c r="B20" s="69"/>
+      <c r="B20" s="90"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
-      <c r="B21" s="69"/>
+      <c r="B21" s="90"/>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40"/>
-      <c r="B22" s="70"/>
+      <c r="B22" s="91"/>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40"/>
@@ -7219,26 +7214,26 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="86"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="86"/>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="66"/>
+      <c r="B27" s="87"/>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
@@ -7246,26 +7241,26 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
-      <c r="B30" s="65"/>
+      <c r="B30" s="86"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="40"/>
-      <c r="B31" s="65"/>
+      <c r="B31" s="86"/>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="66"/>
+      <c r="B32" s="87"/>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
@@ -7275,31 +7270,31 @@
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>172</v>
+        <v>208</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>157</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
-      <c r="B35" s="65"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
-      <c r="B36" s="65"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40"/>
-      <c r="B37" s="66"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
     </row>
@@ -7309,26 +7304,26 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
-      <c r="B40" s="65"/>
+      <c r="B40" s="86"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
-      <c r="B41" s="65"/>
+      <c r="B41" s="86"/>
     </row>
     <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="40"/>
-      <c r="B42" s="66"/>
+      <c r="B42" s="87"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="40"/>
@@ -7381,77 +7376,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">NHSD-1000064-396273981-3734</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
-      <Url>https://hscic365.sharepoint.com/sites/NHSCitizenIdentity/CID/_layouts/15/DocIdRedir.aspx?ID=NHSD-1000064-396273981-3734</Url>
-      <Description>NHSD-1000064-396273981-3734</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006188932CD4D54D4E8BB744F4CAFACB03" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41b05f7c11d69b99df0abd8c2afbe95c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a352f6-bb32-4738-bdb1-5d89d34e1d5b" xmlns:ns3="48d1bf63-db6d-495e-b533-2c61620772d5" xmlns:ns4="bb1f2ac8-33ab-4463-afd2-7d38f30f8130" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2e3f3d0c8007b655e929bcda95b244b" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
@@ -7684,41 +7608,78 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9640DA-08D5-46D4-A158-08C1B5B83D6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="48d1bf63-db6d-495e-b533-2c61620772d5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb1f2ac8-33ab-4463-afd2-7d38f30f8130"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFA9361-9876-43D2-9C51-F6E7DC945EEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F3F898-9314-4134-AE7F-C39F437C10E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">NHSD-1000064-396273981-3734</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
+      <Url>https://hscic365.sharepoint.com/sites/NHSCitizenIdentity/CID/_layouts/15/DocIdRedir.aspx?ID=NHSD-1000064-396273981-3734</Url>
+      <Description>NHSD-1000064-396273981-3734</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E51AF073-A0F2-4548-A23B-BBD40494831B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7736,4 +7697,38 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F3F898-9314-4134-AE7F-C39F437C10E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFA9361-9876-43D2-9C51-F6E7DC945EEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9640DA-08D5-46D4-A158-08C1B5B83D6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="48d1bf63-db6d-495e-b533-2c61620772d5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb1f2ac8-33ab-4463-afd2-7d38f30f8130"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/ServiceAssessmentQuestionnair.xlsx
+++ b/docs/ServiceAssessmentQuestionnair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkata.Satya\nhsidentity\national-authentication\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A1B74-AF01-4122-ACB5-558C3D32D9A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85904A57-D25E-4565-84C8-E55370412E42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,6 +1214,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,9 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1745,9 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120FD54-FA19-44BA-8CBE-332367F8EDE6}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1775,10 +1773,10 @@
     </row>
     <row r="2" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="42"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -1826,13 +1824,13 @@
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -1862,15 +1860,15 @@
     </row>
     <row r="7" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -1883,15 +1881,15 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82">
+      <c r="C8" s="82"/>
+      <c r="D8" s="83">
         <v>43567</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -1904,15 +1902,15 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="83">
+      <c r="C9" s="82"/>
+      <c r="D9" s="84">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
@@ -1925,15 +1923,15 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="84" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
@@ -1997,15 +1995,15 @@
     </row>
     <row r="14" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -2052,15 +2050,15 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="41"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="77" t="s">
+      <c r="C17" s="82"/>
+      <c r="D17" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
@@ -2407,7 +2405,7 @@
   <dimension ref="A1:DB975"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2416,40 +2414,41 @@
     <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="42.08203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="30" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="30.4140625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="24.75" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="13.58203125" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.9140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="14.58203125" customWidth="1"/>
-    <col min="18" max="18" width="30.4140625" customWidth="1"/>
-    <col min="19" max="19" width="19.58203125" customWidth="1"/>
-    <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="18.75" customWidth="1"/>
-    <col min="22" max="22" width="26.5" customWidth="1"/>
-    <col min="23" max="23" width="20.83203125" customWidth="1"/>
-    <col min="24" max="25" width="10.5" customWidth="1"/>
-    <col min="26" max="26" width="14.08203125" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="30" width="11.08203125" customWidth="1"/>
-    <col min="31" max="105" width="11.08203125" style="5"/>
+    <col min="5" max="5" width="40.6640625" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="40" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.58203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.9140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.58203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.4140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.58203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18.75" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="26.5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="20.83203125" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="10.5" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="14.08203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="30" width="11.08203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="32" max="105" width="11.08203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="70" t="s">
         <v>178</v>
       </c>
       <c r="D1" s="13"/>
@@ -7065,7 +7064,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7084,10 +7083,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
     </row>
@@ -7168,10 +7167,10 @@
       <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
     </row>
     <row r="16" spans="1:4" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40"/>
@@ -7181,7 +7180,7 @@
       <c r="A17" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="90" t="s">
         <v>154</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -7190,23 +7189,23 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="90"/>
+      <c r="B18" s="91"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
-      <c r="B19" s="90"/>
+      <c r="B19" s="91"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="91"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
-      <c r="B21" s="90"/>
+      <c r="B21" s="91"/>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40"/>
-      <c r="B22" s="91"/>
+      <c r="B22" s="92"/>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40"/>
@@ -7216,7 +7215,7 @@
       <c r="A24" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="86" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -7225,15 +7224,15 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
-      <c r="B25" s="86"/>
+      <c r="B25" s="87"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
-      <c r="B26" s="86"/>
+      <c r="B26" s="87"/>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="87"/>
+      <c r="B27" s="88"/>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
@@ -7243,7 +7242,7 @@
       <c r="A29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="86" t="s">
         <v>156</v>
       </c>
       <c r="D29" s="31" t="s">
@@ -7252,15 +7251,15 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
-      <c r="B30" s="86"/>
+      <c r="B30" s="87"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="40"/>
-      <c r="B31" s="86"/>
+      <c r="B31" s="87"/>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="87"/>
+      <c r="B32" s="88"/>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
@@ -7272,7 +7271,7 @@
       <c r="A34" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="86" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="5"/>
@@ -7282,19 +7281,19 @@
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
-      <c r="B35" s="86"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
-      <c r="B36" s="86"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40"/>
-      <c r="B37" s="87"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
     </row>
@@ -7306,7 +7305,7 @@
       <c r="A39" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="86" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="32" t="s">
@@ -7315,15 +7314,15 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
-      <c r="B40" s="86"/>
+      <c r="B40" s="87"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
-      <c r="B41" s="86"/>
+      <c r="B41" s="87"/>
     </row>
     <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="40"/>
-      <c r="B42" s="87"/>
+      <c r="B42" s="88"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="40"/>
@@ -7376,6 +7375,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">NHSD-1000064-396273981-3734</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
+      <Url>https://hscic365.sharepoint.com/sites/NHSCitizenIdentity/CID/_layouts/15/DocIdRedir.aspx?ID=NHSD-1000064-396273981-3734</Url>
+      <Description>NHSD-1000064-396273981-3734</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006188932CD4D54D4E8BB744F4CAFACB03" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41b05f7c11d69b99df0abd8c2afbe95c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a352f6-bb32-4738-bdb1-5d89d34e1d5b" xmlns:ns3="48d1bf63-db6d-495e-b533-2c61620772d5" xmlns:ns4="bb1f2ac8-33ab-4463-afd2-7d38f30f8130" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2e3f3d0c8007b655e929bcda95b244b" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
@@ -7608,78 +7678,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9640DA-08D5-46D4-A158-08C1B5B83D6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="48d1bf63-db6d-495e-b533-2c61620772d5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb1f2ac8-33ab-4463-afd2-7d38f30f8130"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFA9361-9876-43D2-9C51-F6E7DC945EEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">NHSD-1000064-396273981-3734</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
-      <Url>https://hscic365.sharepoint.com/sites/NHSCitizenIdentity/CID/_layouts/15/DocIdRedir.aspx?ID=NHSD-1000064-396273981-3734</Url>
-      <Description>NHSD-1000064-396273981-3734</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F3F898-9314-4134-AE7F-C39F437C10E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E51AF073-A0F2-4548-A23B-BBD40494831B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7697,38 +7730,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F3F898-9314-4134-AE7F-C39F437C10E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFA9361-9876-43D2-9C51-F6E7DC945EEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9640DA-08D5-46D4-A158-08C1B5B83D6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="48d1bf63-db6d-495e-b533-2c61620772d5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb1f2ac8-33ab-4463-afd2-7d38f30f8130"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>